--- a/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,61</t>
+          <t>-2,97; 5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 15,95</t>
+          <t>-0,26; 15,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 15,11</t>
+          <t>-2,15; 14,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,21</t>
+          <t>-7,38; 4,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 318,89</t>
+          <t>-5,62; 309,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 212,63</t>
+          <t>-18,92; 230,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 179,04</t>
+          <t>-63,64; 174,08</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,36</t>
+          <t>-0,66; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,05</t>
+          <t>1,31; 9,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,75</t>
+          <t>-0,0; 7,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,56</t>
+          <t>-0,12; 6,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 140,7</t>
+          <t>-12,69; 137,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 135,07</t>
+          <t>12,77; 140,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 100,55</t>
+          <t>-0,11; 100,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 74,57</t>
+          <t>-0,6; 77,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,13</t>
+          <t>0,41; 5,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,51</t>
+          <t>2,76; 8,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,11</t>
+          <t>1,33; 6,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,57</t>
+          <t>2,59; 8,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 108,01</t>
+          <t>4,1; 105,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,92; 122,5</t>
+          <t>27,81; 120,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,65; 132,62</t>
+          <t>18,13; 128,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 104,77</t>
+          <t>22,53; 110,69</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,02</t>
+          <t>-0,53; 4,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,0</t>
+          <t>1,72; 7,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,23</t>
+          <t>0,94; 6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,51</t>
+          <t>-4,95; 3,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 125,31</t>
+          <t>-8,06; 128,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 143,41</t>
+          <t>18,76; 141,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 128,02</t>
+          <t>11,55; 126,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 37,35</t>
+          <t>-38,7; 37,6</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,07</t>
+          <t>3,45; 8,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,98</t>
+          <t>2,16; 8,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,26</t>
+          <t>2,7; 8,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,11</t>
+          <t>1,14; 7,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,02; 201,89</t>
+          <t>55,19; 204,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,74; 107,82</t>
+          <t>20,89; 109,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,04; 119,26</t>
+          <t>28,12; 118,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 66,69</t>
+          <t>8,57; 65,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,14; 4,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,76</t>
+          <t>3,63; 6,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,85</t>
+          <t>2,77; 5,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,05</t>
+          <t>1,48; 5,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>36,65; 104,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,26; 92,4</t>
+          <t>41,44; 89,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,84; 86,69</t>
+          <t>33,78; 84,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 50,48</t>
+          <t>12,92; 50,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,04</t>
+          <t>-2,55; 5,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 15,98</t>
+          <t>-0,57; 17,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,88</t>
+          <t>-3,03; 15,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 309,9</t>
+          <t>-14,1; 327,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 230,02</t>
+          <t>-23,81; 227,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,7</t>
+          <t>-0,72; 4,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 9,13</t>
+          <t>1,52; 9,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 7,96</t>
+          <t>0,16; 7,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 137,09</t>
+          <t>-14,78; 125,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 140,14</t>
+          <t>12,42; 133,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 100,5</t>
+          <t>1,35; 103,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,31</t>
+          <t>0,39; 5,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 8,24</t>
+          <t>2,67; 8,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,14</t>
+          <t>1,29; 6,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 105,63</t>
+          <t>4,93; 104,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,81; 120,55</t>
+          <t>27,79; 119,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 128,75</t>
+          <t>18,99; 130,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,91</t>
+          <t>-0,2; 5,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,73</t>
+          <t>1,8; 7,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,99</t>
+          <t>0,9; 7,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 128,93</t>
+          <t>-4,75; 129,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,76; 141,6</t>
+          <t>18,26; 142,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 126,05</t>
+          <t>10,55; 129,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,24</t>
+          <t>3,39; 7,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,06</t>
+          <t>2,25; 7,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,03</t>
+          <t>2,38; 8,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,19; 204,18</t>
+          <t>55,07; 204,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,89; 109,25</t>
+          <t>22,03; 103,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,12; 118,07</t>
+          <t>23,27; 113,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,79</t>
+          <t>2,22; 4,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,74</t>
+          <t>3,56; 6,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,69</t>
+          <t>2,76; 5,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,65; 104,1</t>
+          <t>38,26; 99,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,44; 89,45</t>
+          <t>40,04; 90,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,78; 84,18</t>
+          <t>34,09; 86,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 5,7</t>
+          <t>-2,85; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 17,06</t>
+          <t>-0,42; 15,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 15,9</t>
+          <t>-3,33; 15,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 4,05</t>
+          <t>-7,11; 4,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 327,48</t>
+          <t>-7,47; 318,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 227,51</t>
+          <t>-28,67; 212,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,64; 174,08</t>
+          <t>-63,2; 179,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,39</t>
+          <t>-0,62; 4,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,18</t>
+          <t>1,27; 9,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 7,76</t>
+          <t>0,22; 7,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 6,43</t>
+          <t>-0,21; 6,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 125,29</t>
+          <t>-10,84; 140,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 133,65</t>
+          <t>12,53; 135,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 103,28</t>
+          <t>1,72; 100,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 77,4</t>
+          <t>-2,24; 74,57</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,12</t>
+          <t>0,49; 5,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,05</t>
+          <t>2,65; 8,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,03</t>
+          <t>1,22; 6,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,64</t>
+          <t>2,56; 8,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 104,66</t>
+          <t>6,06; 108,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,79; 119,22</t>
+          <t>26,92; 122,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,99; 130,32</t>
+          <t>18,65; 132,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,53; 110,69</t>
+          <t>21,54; 104,77</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,3</t>
+          <t>-0,11; 5,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,66</t>
+          <t>1,77; 8,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,07</t>
+          <t>1,12; 7,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 3,55</t>
+          <t>-4,77; 3,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 129,27</t>
+          <t>-3,6; 125,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 142,9</t>
+          <t>19,31; 143,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 129,43</t>
+          <t>10,6; 128,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 37,6</t>
+          <t>-37,62; 37,35</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,94</t>
+          <t>3,37; 8,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,84</t>
+          <t>2,27; 7,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,07</t>
+          <t>2,71; 8,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,13</t>
+          <t>1,35; 7,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,07; 204,18</t>
+          <t>55,02; 201,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,03; 103,51</t>
+          <t>21,74; 107,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,27; 113,91</t>
+          <t>27,04; 119,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 65,36</t>
+          <t>9,37; 66,69</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,6</t>
+          <t>2,29; 4,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,71</t>
+          <t>3,67; 6,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,78</t>
+          <t>2,86; 5,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,02</t>
+          <t>1,52; 5,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,26; 99,97</t>
+          <t>41,28; 107,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,04; 90,56</t>
+          <t>42,26; 92,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,09; 86,14</t>
+          <t>34,84; 86,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,92; 50,52</t>
+          <t>13,38; 50,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>43,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>27,01%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,61</t>
+          <t>-0,47; 4,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 15,95</t>
+          <t>2,07; 9,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 15,11</t>
+          <t>0,76; 7,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,21</t>
+          <t>-0,17; 5,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,42; 136,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 318,89</t>
+          <t>22,78; 136,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 212,63</t>
+          <t>6,24; 100,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 179,04</t>
+          <t>-1,56; 74,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>66,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>87,86%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,36</t>
+          <t>0,49; 5,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,05</t>
+          <t>2,65; 8,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,75</t>
+          <t>1,22; 6,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,56</t>
+          <t>3,62; 11,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 140,7</t>
+          <t>6,06; 108,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 135,07</t>
+          <t>26,92; 122,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 100,55</t>
+          <t>18,65; 132,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 74,57</t>
+          <t>33,22; 247,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,68%</t>
+          <t>67,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>-16,16%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,13</t>
+          <t>-0,11; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,51</t>
+          <t>1,77; 8,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,11</t>
+          <t>1,12; 7,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,57</t>
+          <t>-7,63; 2,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 108,01</t>
+          <t>-3,6; 125,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,92; 122,5</t>
+          <t>19,31; 143,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,65; 132,62</t>
+          <t>10,6; 128,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 104,77</t>
+          <t>-57,02; 22,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>115,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>57,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>32,81%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,02</t>
+          <t>3,37; 8,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,0</t>
+          <t>2,27; 7,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,23</t>
+          <t>2,71; 8,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,51</t>
+          <t>0,27; 6,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 125,31</t>
+          <t>55,02; 201,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 143,41</t>
+          <t>21,74; 107,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 128,02</t>
+          <t>27,04; 119,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 37,35</t>
+          <t>3,06; 63,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>115,21%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,67%</t>
+          <t>59,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>33,13%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,07</t>
+          <t>2,29; 4,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,98</t>
+          <t>3,67; 6,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,26</t>
+          <t>2,86; 5,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,11</t>
+          <t>0,62; 5,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,02; 201,89</t>
+          <t>41,28; 107,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,74; 107,82</t>
+          <t>42,26; 92,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,04; 119,26</t>
+          <t>34,84; 86,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 66,69</t>
+          <t>8,04; 68,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>67,32%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>64,5%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>59,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>31,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 4,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 6,76</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 5,85</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 5,05</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>41,28; 107,41</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>42,26; 92,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>34,84; 86,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>13,38; 50,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,01</t>
+          <t>-0,45; 4,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,1</t>
+          <t>2,16; 8,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,96</t>
+          <t>0,99; 7,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,75</t>
+          <t>-0,57; 5,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 136,55</t>
+          <t>-12,6; 136,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,78; 136,83</t>
+          <t>22,1; 126,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 100,32</t>
+          <t>8,58; 97,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 74,85</t>
+          <t>-5,15; 72,22</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,13</t>
+          <t>0,27; 5,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,51</t>
+          <t>2,62; 8,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,11</t>
+          <t>1,25; 6,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 11,85</t>
+          <t>3,52; 11,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 108,01</t>
+          <t>2,78; 112,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 122,5</t>
+          <t>27,69; 118,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,65; 132,62</t>
+          <t>18,45; 129,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,22; 247,46</t>
+          <t>30,21; 267,38</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,02</t>
+          <t>-0,07; 4,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,0</t>
+          <t>1,31; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,23</t>
+          <t>1,32; 6,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 2,31</t>
+          <t>-8,17; 2,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 125,31</t>
+          <t>-2,49; 122,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,31; 143,41</t>
+          <t>13,86; 138,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 128,02</t>
+          <t>15,47; 128,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,02; 22,16</t>
+          <t>-58,7; 24,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,07</t>
+          <t>3,43; 8,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,98</t>
+          <t>2,21; 7,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,26</t>
+          <t>2,32; 7,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,61</t>
+          <t>0,23; 6,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,02; 201,89</t>
+          <t>57,0; 201,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,74; 107,82</t>
+          <t>20,85; 104,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,04; 119,26</t>
+          <t>24,63; 117,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 63,67</t>
+          <t>1,74; 64,71</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,15; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,76</t>
+          <t>3,7; 6,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,85</t>
+          <t>2,98; 5,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,54</t>
+          <t>0,71; 5,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>37,51; 103,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,26; 92,4</t>
+          <t>42,33; 88,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,84; 86,69</t>
+          <t>36,41; 85,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 68,0</t>
+          <t>8,54; 69,49</t>
         </is>
       </c>
     </row>
